--- a/src/test/resources/testData/VtigerCRMTestData.xlsx
+++ b/src/test/resources/testData/VtigerCRMTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\VtigerCucumber\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sncsr\git\VtigerCucumberA1\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AA193F-2E8E-409F-8DAA-E35E9E6F8C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5237D4C-74FA-49F1-B84A-26B9884BDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrganizationsTestData" sheetId="1" r:id="rId1"/>
@@ -792,17 +792,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1" collapsed="1"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
@@ -847,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
@@ -927,20 +927,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -974,7 +974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>8</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1058,20 +1058,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
@@ -1207,7 +1207,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -1281,16 +1281,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="41" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
